--- a/segmentirovanije_sites.xlsx
+++ b/segmentirovanije_sites.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
   <si>
     <t>Возраст</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Те, у кого нет сайта</t>
   </si>
   <si>
-    <t>Те, у кого есть сайт, но что-то не работает, что-то надо переделать/доработать</t>
-  </si>
-  <si>
     <t>Те, у кого есть сайт, все работает, но нет продаж - продвижение</t>
   </si>
   <si>
@@ -79,24 +76,6 @@
   </si>
   <si>
     <t>Предприниматели, уже есть работающий бизнес</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Огромная аудитория интернет пользователей не узнает о его товаре/услуге;
- - Процесс получения прибыли займет очень долгое время;
- - Мало клиентов - мало прибыли - много расходов;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Большое количество интернет пользователей.
- - Возможность продавать товар/услугу online, не надо тратиться на аренду, персонал и т.д.
- - Материальные ценности: бизнес в интернете это очень выгодно, прибыльно, мало затрат и большая прибыльность.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Большое количество интернет пользователей
- - Возможность продавать товар/услугу online, не надо тратиться на аренду, персонал и т.д.
- - Можно сделать для начала небольшой/недорогой сайт, по мере развития бизнеса уже расширяться.
- - Материальные ценности: бизнес в интернете это очень выгодно, прибыльно, мало затрат и большая прибыльность - запустил сайт и можно руководить бизнесом из любой точки мира, сидеть на берегу океана и получать деньги.
-</t>
   </si>
   <si>
     <t>визитка, лендинг, возможно интернет-магазин</t>
@@ -121,23 +100,10 @@
     <t xml:space="preserve">Есть свой бизнес - производство, услуги, но только сейчас решили сделать сайт </t>
   </si>
   <si>
-    <t xml:space="preserve"> - Огромная аудитория интернет пользователей не знает о его товаре/услуге;
- - Процесс получения прибыли мог бы занимать более короткое время;
-- Кризис, прибыль падает, расходы растут, аренда дорожает;</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - Тендеры.
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> - Огромная аудитория интернет пользователей не узнает о его товаре/услуге;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Большое количество интернет пользователей.
- - Бюджет выделил деньги на создание сайта, надо срочно освоить.
-</t>
-  </si>
-  <si>
     <t>сайт-каталог, корпоративный сайт</t>
   </si>
   <si>
@@ -147,36 +113,7 @@
     <t>сайт-визитку, блог</t>
   </si>
   <si>
-    <t xml:space="preserve"> - Огромная аудитория интернет пользователей не знает о его талантах, способностях, опыте;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Большое количество интернет пользователей, которым просто необходим его бесценный опыт в чем либо.
- - Это просто интересно.</t>
-  </si>
-  <si>
     <t>17-35</t>
-  </si>
-  <si>
-    <t>Сайт есть, но что-то сломалось, не устраивает дизайн, юзабилити.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Потенциальные клиеты закроют страницу и уйдут.
- - Потеря трафика.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Потенциальные клиеты закроют страницу и уйдут.
- - Потеря трафика.
- - Упадут/упали продажи.
- - Уменьшится/уменьшилась прибыть.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Рост трафика;
- - Рост прибыли;
-</t>
-  </si>
-  <si>
-    <t>редизайн, доработка</t>
   </si>
   <si>
     <t>Сайт работает, все устраивает по дизайну, но нет продаж, следующий шаг - продвижение.</t>
@@ -239,23 +176,98 @@
     <t xml:space="preserve">Бюджетные организации </t>
   </si>
   <si>
-    <t xml:space="preserve"> - Сайт не приносит ожидаемых результатов;
+    <t>продвижение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Предприниматели, которые только организовали свой бизнес (как основной источник заработка или в дополнение к основной работе)  и хотят сделать сайт </t>
+  </si>
+  <si>
+    <t>Интернет активная часть населения</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Не может сделать сайт сам;
+ - У крупных компаний очень дорого.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Нужен надежный исполнитель;
+ - Проект должен быть исполнен обязательно в срок, так как нужно строго отчитываться за выделенные деньги;
+ - Бюджет выделил деньги на создание сайта, надо срочно освоить.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Сайт это бесполезная трата денег и толку от него нет;
+ - Процесс получения прибыли займет очень долгое время;
+ - Сайт это очень дорого.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ - Нужен надежный исполнитель, который не подведет по срокам, не кинет с заказом.
  </t>
   </si>
   <si>
-    <t xml:space="preserve"> - Выручки падают, бизнес не развивается
- - Сайт не приносит ожидаемых результатов;
- - Нет/низкие продажи online;
+    <t xml:space="preserve"> - Нужен надежный исполнитель, который не подведет по срокам, не кинет с заказом.
+ - Продвижение это ненужная никому услуга, все и так хорошо.
+- Продвижение это дорого.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - Где найти надежного исполнителя, чтобы было быстро и недорого.
+ - У исполнителя мало опыта.
+ - А вдруг результат не оправдает ожиданий.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Информация о их организации дойдет до большего количества людей ( налоговая информация и т.п).
 </t>
   </si>
   <si>
-    <t>продвижение</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Предприниматели, которые только организовали свой бизнес (как основной источник заработка или в дополнение к основной работе)  и хотят сделать сайт </t>
-  </si>
-  <si>
-    <t>Интернет активная часть населения</t>
+    <t xml:space="preserve">
+- Общение с родственниками, друзьями станет более интересным.
+- Можно похвастаться перед друзьями.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Сделать хорошой сайт быстро и недорго.
+ - Создать сайт дешево для рекламы товара/услуги
+ - Возможность продавать товар/услугу online, не надо тратиться на аренду, персонал и т.д.
+ - Можно сделать для начала небольшой/недорогой сайт, по мере развития бизнеса уже расширяться.
+ - Материальные ценности: бизнес в интернете это очень выгодно, прибыльно, мало затрат и большая прибыльность - запустил сайт и можно руководить бизнесом из любой точки мира, сидеть на берегу океана и получать деньги.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Увеличить продажи.
+- Большое количество интернет пользователей, которые станут потенциальными клиентами/покупателями.
+ - Возможность продавать товар/услугу online, не надо тратиться на аренду, персонал и т.д.
+ - Материальные ценности: бизнес в интернете это очень выгодно, прибыльно, мало затрат и большая прибыльность.
+- Сделать красивый, прибыльный сайт за доступную цену.
+- Увеличить имидж компании
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Переделка это долго и дорого.
+ - А вдруг сайт взломают.
+ - Вирусы
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Это дорого.
+ - Надо чтобы сайт не взломали.
+</t>
+  </si>
+  <si>
+    <t>Сайт есть, но что-то сломалось, не устраивает дизайн, юзабилити, вирусы, взлом</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Нужно надежно защитить сайт от взлома и вирусов.
+ - Донести информацию о товаре/услуге в доступной форме до большего количества людей в удобной и доступной форме;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - Донести информацию о товаре/услуге в доступной форме до большего количества людей;
+</t>
+  </si>
+  <si>
+    <t>редизайн, доработка, защита от вирусов, разработака новых модулей.</t>
+  </si>
+  <si>
+    <t>Те, у кого есть сайт, но что-то не работает, что-то надо переделать/доработать, поддержка сайта</t>
   </si>
 </sst>
 </file>
@@ -278,6 +290,8 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -302,6 +316,8 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -309,6 +325,8 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -316,6 +334,8 @@
       <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -524,6 +544,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -533,6 +586,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -542,59 +598,23 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -984,8 +1004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1002,19 +1022,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:9" s="7" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="32"/>
+      <c r="A2" s="12"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6" t="s">
         <v>5</v>
@@ -1042,253 +1062,254 @@
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="14"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="26"/>
     </row>
-    <row r="4" spans="1:9" s="4" customFormat="1" ht="206.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:9" s="4" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="18" t="s">
+    </row>
+    <row r="5" spans="1:9" s="4" customFormat="1" ht="262.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="18" t="s">
-        <v>24</v>
+      <c r="I5" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="4" customFormat="1" ht="168.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="18" t="s">
+    <row r="6" spans="1:9" s="4" customFormat="1" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="4" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>30</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>32</v>
+        <v>43</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>34</v>
+        <v>26</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="4" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="A7" s="16"/>
+      <c r="B7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>38</v>
+      <c r="F7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="14"/>
+      <c r="B8" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="26"/>
     </row>
     <row r="9" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>50</v>
+      <c r="C9" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" s="28" t="s">
+      <c r="F9" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="4" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="31" t="s">
+      <c r="A10" s="21"/>
+      <c r="B10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="29"/>
+      <c r="D10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="25"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="25"/>
+      <c r="F10" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="18"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="18"/>
     </row>
     <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="14"/>
+      <c r="B11" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="26"/>
     </row>
     <row r="12" spans="1:9" ht="287.10000000000002" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="24" t="s">
+      <c r="C12" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="I12" s="28" t="s">
+      <c r="F12" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" s="25"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="25"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="16"/>
+      <c r="F13" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="18"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A4:A7"/>
     <mergeCell ref="I12:I13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="B1:I1"/>
@@ -1299,7 +1320,6 @@
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="B8:I8"/>
     <mergeCell ref="B11:I11"/>
-    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:H10"/>
